--- a/stm32_h7.xlsx
+++ b/stm32_h7.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Filters" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">List!$A$4:$K$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">List!$A$4:$L$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Filters!$A$4:$C$48</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="127">
   <si>
     <t>Filter</t>
   </si>
@@ -61,6 +61,9 @@
     <t>GFX Score</t>
   </si>
   <si>
+    <t>TRNG</t>
+  </si>
+  <si>
     <t>STM32H743AG</t>
   </si>
   <si>
@@ -76,93 +79,114 @@
     <t>1024 kBytes</t>
   </si>
   <si>
+    <t>400 MHz</t>
+  </si>
+  <si>
+    <t>STM32H743AI</t>
+  </si>
+  <si>
+    <t>STM32H743AIIx</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>2048 kBytes</t>
+  </si>
+  <si>
+    <t>STM32H743BI</t>
+  </si>
+  <si>
+    <t>STM32H743BITx</t>
+  </si>
+  <si>
+    <t>LQFP208</t>
+  </si>
+  <si>
+    <t>STM32H743II</t>
+  </si>
+  <si>
+    <t>STM32H743IIKx</t>
+  </si>
+  <si>
+    <t>UFBGA176</t>
+  </si>
+  <si>
+    <t>STM32H743IITx</t>
+  </si>
+  <si>
+    <t>LQFP176</t>
+  </si>
+  <si>
+    <t>STM32H743VI</t>
+  </si>
+  <si>
+    <t>STM32H743VIHx</t>
+  </si>
+  <si>
+    <t>TFBGA100</t>
+  </si>
+  <si>
+    <t>STM32H743VITx</t>
+  </si>
+  <si>
+    <t>LQFP100</t>
+  </si>
+  <si>
+    <t>STM32H743XI</t>
+  </si>
+  <si>
+    <t>STM32H743XIHx</t>
+  </si>
+  <si>
+    <t>STM32H743I-EVAL</t>
+  </si>
+  <si>
+    <t>TFBGA240</t>
+  </si>
+  <si>
+    <t>STM32H743ZI</t>
+  </si>
+  <si>
+    <t>STM32H743ZITx</t>
+  </si>
+  <si>
+    <t>NUCLEO-H743ZI</t>
+  </si>
+  <si>
+    <t>LQFP144</t>
+  </si>
+  <si>
+    <t>STM32H750IB</t>
+  </si>
+  <si>
+    <t>STM32H750IBKx</t>
+  </si>
+  <si>
+    <t>128 kBytes</t>
+  </si>
+  <si>
+    <t>STM32H750VB</t>
+  </si>
+  <si>
+    <t>STM32H750VBTx</t>
+  </si>
+  <si>
+    <t>STM32H750XB</t>
+  </si>
+  <si>
+    <t>STM32H750XBHx</t>
+  </si>
+  <si>
+    <t>STM32H753AG</t>
+  </si>
+  <si>
+    <t>STM32H753AGIx</t>
+  </si>
+  <si>
     <t>1056 kBytes</t>
   </si>
   <si>
-    <t>400 MHz</t>
-  </si>
-  <si>
-    <t>STM32H743AI</t>
-  </si>
-  <si>
-    <t>STM32H743AIIx</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>2048 kBytes</t>
-  </si>
-  <si>
-    <t>STM32H743BI</t>
-  </si>
-  <si>
-    <t>STM32H743BITx</t>
-  </si>
-  <si>
-    <t>LQFP208</t>
-  </si>
-  <si>
-    <t>STM32H743II</t>
-  </si>
-  <si>
-    <t>STM32H743IITx</t>
-  </si>
-  <si>
-    <t>LQFP176</t>
-  </si>
-  <si>
-    <t>STM32H743VG</t>
-  </si>
-  <si>
-    <t>STM32H743VGHx</t>
-  </si>
-  <si>
-    <t>TFBGA100</t>
-  </si>
-  <si>
-    <t>STM32H743VI</t>
-  </si>
-  <si>
-    <t>STM32H743VIHx</t>
-  </si>
-  <si>
-    <t>STM32H743VITx</t>
-  </si>
-  <si>
-    <t>LQFP100</t>
-  </si>
-  <si>
-    <t>STM32H743XI</t>
-  </si>
-  <si>
-    <t>STM32H743XIHx</t>
-  </si>
-  <si>
-    <t>STM32H743I-DISCO, STM32H743I-EVAL</t>
-  </si>
-  <si>
-    <t>TFBGA240</t>
-  </si>
-  <si>
-    <t>STM32H743ZI</t>
-  </si>
-  <si>
-    <t>STM32H743ZITx</t>
-  </si>
-  <si>
-    <t>NUCLEO-H743ZI</t>
-  </si>
-  <si>
-    <t>LQFP144</t>
-  </si>
-  <si>
-    <t>STM32H753AG</t>
-  </si>
-  <si>
-    <t>STM32H753AGIx</t>
-  </si>
-  <si>
     <t>STM32H753AI</t>
   </si>
   <si>
@@ -181,9 +205,6 @@
     <t>STM32H753IIKx</t>
   </si>
   <si>
-    <t>UFBGA176</t>
-  </si>
-  <si>
     <t>STM32H753IITx</t>
   </si>
   <si>
@@ -217,7 +238,7 @@
     <t>STM32H753ZITx</t>
   </si>
   <si>
-    <t>List of MCUs selection: 19 items. Database version: Tue Apr 03 19:01:22 CST 2018</t>
+    <t>List of MCUs selection: 22 items. Database version: Tue Jul 17 21:19:56 CST 2018</t>
   </si>
   <si>
     <t>Series</t>
@@ -241,7 +262,7 @@
     <t>Line</t>
   </si>
   <si>
-    <t>STM32H7x3</t>
+    <t>STM32H743/753, STM32H750 Value line</t>
   </si>
   <si>
     <t>LQFP100, LQFP144, LQFP176, LQFP208, TFBGA100, TFBGA240, UFBGA169, UFBGA176</t>
@@ -253,7 +274,7 @@
     <t>0.0 to 12.214</t>
   </si>
   <si>
-    <t>0 to 168</t>
+    <t>82 to 168</t>
   </si>
   <si>
     <t>Eeprom</t>
@@ -262,19 +283,19 @@
     <t>0 to 0</t>
   </si>
   <si>
-    <t>0 to 2048</t>
+    <t>128 to 2048</t>
   </si>
   <si>
     <t>Ram</t>
   </si>
   <si>
-    <t>0 to 1056</t>
+    <t>1024 to 1056</t>
   </si>
   <si>
     <t>Freq</t>
   </si>
   <si>
-    <t>0 to 400</t>
+    <t>400 to 400</t>
   </si>
   <si>
     <t>ADC 16-bit</t>
@@ -550,28 +571,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.6484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.26953125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="20.5703125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="32.05859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="9.3671875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="10.01953125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="10.01953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="3.625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="7.515625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.36328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.57421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="24.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.2421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="12.01953125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.01953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="4.3515625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="9.015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.234375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="6.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="true">
@@ -605,31 +627,34 @@
       <c r="J4" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="K4" t="s" s="3">
+      <c r="K4" t="s" s="1">
         <v>13</v>
+      </c>
+      <c r="L4" t="s" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s" s="4">
         <v>19</v>
@@ -641,6 +666,9 @@
         <v>20</v>
       </c>
       <c r="K5" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -658,16 +686,16 @@
         <v>10.478</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s" s="4">
         <v>24</v>
       </c>
       <c r="H6" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" t="n" s="4">
         <v>132.0</v>
@@ -676,6 +704,9 @@
         <v>20</v>
       </c>
       <c r="K6" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -693,7 +724,7 @@
         <v>11.103</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s" s="4">
         <v>27</v>
@@ -702,7 +733,7 @@
         <v>24</v>
       </c>
       <c r="H7" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" t="n" s="4">
         <v>168.0</v>
@@ -711,6 +742,9 @@
         <v>20</v>
       </c>
       <c r="K7" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -728,7 +762,7 @@
         <v>10.64</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s" s="4">
         <v>30</v>
@@ -737,7 +771,7 @@
         <v>24</v>
       </c>
       <c r="H8" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" t="n" s="4">
         <v>140.0</v>
@@ -748,48 +782,54 @@
       <c r="K8" t="n" s="4">
         <v>0.0</v>
       </c>
+      <c r="L8" t="n" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s" s="4">
         <v>31</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="C9" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n" s="4">
+        <v>10.64</v>
+      </c>
+      <c r="E9" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s" s="4">
         <v>32</v>
       </c>
-      <c r="C9" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="D9" t="n" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E9" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s" s="4">
-        <v>33</v>
-      </c>
       <c r="G9" t="s" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s" s="4">
         <v>19</v>
       </c>
       <c r="I9" t="n" s="4">
-        <v>82.0</v>
+        <v>140.0</v>
       </c>
       <c r="J9" t="s" s="4">
         <v>20</v>
       </c>
       <c r="K9" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s" s="4">
         <v>34</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>35</v>
       </c>
       <c r="C10" t="s" s="4">
         <v>23</v>
@@ -798,16 +838,16 @@
         <v>9.83</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s" s="4">
         <v>24</v>
       </c>
       <c r="H10" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" t="n" s="4">
         <v>82.0</v>
@@ -818,10 +858,13 @@
       <c r="K10" t="n" s="4">
         <v>0.0</v>
       </c>
+      <c r="L10" t="n" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s" s="4">
         <v>36</v>
@@ -833,7 +876,7 @@
         <v>9.83</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s" s="4">
         <v>37</v>
@@ -842,7 +885,7 @@
         <v>24</v>
       </c>
       <c r="H11" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" t="n" s="4">
         <v>82.0</v>
@@ -851,6 +894,9 @@
         <v>20</v>
       </c>
       <c r="K11" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -877,7 +923,7 @@
         <v>24</v>
       </c>
       <c r="H12" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I12" t="n" s="4">
         <v>168.0</v>
@@ -886,6 +932,9 @@
         <v>20</v>
       </c>
       <c r="K12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -912,7 +961,7 @@
         <v>24</v>
       </c>
       <c r="H13" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I13" t="n" s="4">
         <v>114.0</v>
@@ -921,6 +970,9 @@
         <v>20</v>
       </c>
       <c r="K13" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -932,92 +984,98 @@
         <v>47</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n" s="4">
-        <v>0.0</v>
+        <v>4.651</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s" s="4">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s" s="4">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="4">
         <v>19</v>
       </c>
       <c r="I14" t="n" s="4">
-        <v>132.0</v>
+        <v>140.0</v>
       </c>
       <c r="J14" t="s" s="4">
         <v>20</v>
       </c>
       <c r="K14" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s" s="4">
         <v>23</v>
       </c>
       <c r="D15" t="n" s="4">
-        <v>10.825</v>
+        <v>3.378</v>
       </c>
       <c r="E15" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s" s="4">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s" s="4">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I15" t="n" s="4">
-        <v>132.0</v>
+        <v>82.0</v>
       </c>
       <c r="J15" t="s" s="4">
         <v>20</v>
       </c>
       <c r="K15" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s" s="4">
         <v>23</v>
       </c>
       <c r="D16" t="n" s="4">
-        <v>11.45</v>
+        <v>4.95</v>
       </c>
       <c r="E16" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s" s="4">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="4">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I16" t="n" s="4">
         <v>168.0</v>
@@ -1028,254 +1086,392 @@
       <c r="K16" t="n" s="4">
         <v>0.0</v>
       </c>
+      <c r="L16" t="n" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n" s="4">
-        <v>10.987</v>
+        <v>0.0</v>
       </c>
       <c r="E17" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s" s="4">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s" s="4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s" s="4">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n" s="4">
-        <v>140.0</v>
+        <v>132.0</v>
       </c>
       <c r="J17" t="s" s="4">
         <v>20</v>
       </c>
       <c r="K17" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="5">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s" s="4">
         <v>23</v>
       </c>
       <c r="D18" t="n" s="4">
-        <v>10.987</v>
+        <v>10.825</v>
       </c>
       <c r="E18" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s" s="4">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s" s="4">
         <v>24</v>
       </c>
       <c r="H18" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I18" t="n" s="4">
-        <v>140.0</v>
+        <v>132.0</v>
       </c>
       <c r="J18" t="s" s="4">
         <v>20</v>
       </c>
       <c r="K18" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="n" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s" s="4">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n" s="4">
-        <v>0.0</v>
+        <v>11.45</v>
       </c>
       <c r="E19" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s" s="4">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s" s="4">
         <v>19</v>
       </c>
       <c r="I19" t="n" s="4">
-        <v>82.0</v>
+        <v>168.0</v>
       </c>
       <c r="J19" t="s" s="4">
         <v>20</v>
       </c>
       <c r="K19" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="n" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s" s="4">
         <v>23</v>
       </c>
       <c r="D20" t="n" s="4">
-        <v>10.177</v>
+        <v>10.987</v>
       </c>
       <c r="E20" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s" s="4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s" s="4">
         <v>24</v>
       </c>
       <c r="H20" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I20" t="n" s="4">
-        <v>82.0</v>
+        <v>140.0</v>
       </c>
       <c r="J20" t="s" s="4">
         <v>20</v>
       </c>
       <c r="K20" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L20" t="n" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s" s="4">
         <v>23</v>
       </c>
       <c r="D21" t="n" s="4">
-        <v>10.177</v>
+        <v>10.987</v>
       </c>
       <c r="E21" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s" s="4">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s" s="4">
         <v>24</v>
       </c>
       <c r="H21" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I21" t="n" s="4">
-        <v>82.0</v>
+        <v>140.0</v>
       </c>
       <c r="J21" t="s" s="4">
         <v>20</v>
       </c>
       <c r="K21" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L21" t="n" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="D22" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n" s="4">
+        <v>82.0</v>
+      </c>
+      <c r="J22" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="K22" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L22" t="n" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="5">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s" s="4">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="D22" t="n" s="4">
+      <c r="D23" t="n" s="4">
+        <v>10.177</v>
+      </c>
+      <c r="E23" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="I23" t="n" s="4">
+        <v>82.0</v>
+      </c>
+      <c r="J23" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="K23" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L23" t="n" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="5">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="D24" t="n" s="4">
+        <v>10.177</v>
+      </c>
+      <c r="E24" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="I24" t="n" s="4">
+        <v>82.0</v>
+      </c>
+      <c r="J24" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="K24" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L24" t="n" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="5">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n" s="4">
         <v>12.214</v>
       </c>
-      <c r="E22" t="s" s="4">
-        <v>63</v>
-      </c>
-      <c r="F22" t="s" s="4">
+      <c r="E25" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="4">
+      <c r="G25" t="s" s="4">
         <v>24</v>
       </c>
-      <c r="H22" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="I22" t="n" s="4">
+      <c r="H25" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="I25" t="n" s="4">
         <v>168.0</v>
       </c>
-      <c r="J22" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="K22" t="n" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="7">
-        <v>64</v>
-      </c>
-      <c r="B23" t="s" s="9">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s" s="9">
+      <c r="J25" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="K25" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L25" t="n" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s" s="9">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="D23" t="n" s="9">
+      <c r="D26" t="n" s="9">
         <v>10.756</v>
       </c>
-      <c r="E23" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s" s="9">
+      <c r="E26" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s" s="9">
         <v>45</v>
       </c>
-      <c r="G23" t="s" s="9">
+      <c r="G26" t="s" s="9">
         <v>24</v>
       </c>
-      <c r="H23" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="I23" t="n" s="9">
+      <c r="H26" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="I26" t="n" s="9">
         <v>114.0</v>
       </c>
-      <c r="J23" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="K23" t="n" s="9">
+      <c r="J26" t="s" s="9">
+        <v>20</v>
+      </c>
+      <c r="K26" t="n" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L26" t="n" s="9">
         <v>0.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:K23"/>
+  <autoFilter ref="A4:L26"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -1288,14 +1484,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.58984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="69.58203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.8671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.90625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="83.49609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.23828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="true">
@@ -1311,35 +1507,35 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="5">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s" s="6">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="5">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="5">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -1347,21 +1543,21 @@
         <v>8</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="5">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -1369,21 +1565,21 @@
         <v>11</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="5">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -1391,406 +1587,406 @@
         <v>9</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="5">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="5">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="5">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B15" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C15" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="5">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B16" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C16" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="5">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B17" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C17" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="5">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B18" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C18" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="5">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B19" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C19" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="5">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B20" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C20" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="5">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B21" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C21" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="5">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B22" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C22" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="5">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B23" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C23" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="5">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B24" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C24" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="5">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B25" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C25" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="5">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B26" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C26" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="5">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B27" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C27" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="5">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B28" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C28" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="5">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B29" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C29" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="5">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B30" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C30" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="5">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B31" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C31" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="5">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B32" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C32" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B33" t="n" s="9">
         <v>0.0</v>
       </c>
       <c r="C33" t="s" s="8">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="5">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B34" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C34" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="5">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B35" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C35" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="5">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B36" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C36" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="5">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B37" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C37" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="5">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B38" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C38" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="5">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B39" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C39" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="5">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B40" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C40" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="5">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B41" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C41" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="5">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B42" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C42" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="5">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B43" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C43" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="5">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B44" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C44" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="5">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B45" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C45" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="5">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B46" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C46" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="5">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B47" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C47" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="5">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B48" t="n" s="4">
         <v>0.0</v>
       </c>
       <c r="C48" t="s" s="6">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
